--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="1094">
   <si>
     <t>anchor score</t>
   </si>
@@ -466,472 +466,472 @@
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>recent</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>wash</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>recent</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>fox</t>
   </si>
   <si>
     <t>social</t>
@@ -3664,7 +3664,7 @@
         <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3722,7 +3722,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02666841955663351</v>
+        <v>0.02699709152455023</v>
       </c>
       <c r="C3">
         <v>190</v>
@@ -3743,28 +3743,28 @@
         <v>102</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="K3">
-        <v>0.00461360954897823</v>
+        <v>0.007027719523492522</v>
       </c>
       <c r="L3">
-        <v>642</v>
+        <v>194</v>
       </c>
       <c r="M3">
-        <v>666</v>
+        <v>194</v>
       </c>
       <c r="N3">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2441</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3772,7 +3772,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02321676601956838</v>
+        <v>0.02350289846772897</v>
       </c>
       <c r="C4">
         <v>144</v>
@@ -3793,28 +3793,28 @@
         <v>372</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="K4">
-        <v>0.004234167992026808</v>
+        <v>0.006461531703343992</v>
       </c>
       <c r="L4">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="M4">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>165</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3822,7 +3822,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01041884260867132</v>
+        <v>0.01054724847450579</v>
       </c>
       <c r="C5">
         <v>29</v>
@@ -3843,28 +3843,28 @@
         <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="K5">
-        <v>0.003308626800476864</v>
+        <v>0.00461360954897823</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>642</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>666</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>187</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3872,7 +3872,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01005315458333277</v>
+        <v>0.01017705356780983</v>
       </c>
       <c r="C6">
         <v>27</v>
@@ -3893,28 +3893,28 @@
         <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>307</v>
+        <v>153</v>
       </c>
       <c r="K6">
-        <v>0.003150981541016383</v>
+        <v>0.004234167992026808</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>216</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3922,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.008866048973062557</v>
+        <v>0.008975317606602471</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -3943,28 +3943,28 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>91</v>
+        <v>306</v>
       </c>
       <c r="K7">
-        <v>0.003087151272689736</v>
+        <v>0.003308626800476864</v>
       </c>
       <c r="L7">
-        <v>419</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>442</v>
+        <v>43</v>
       </c>
       <c r="N7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2759</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3972,7 +3972,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008866048973062557</v>
+        <v>0.008975317606602471</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -3993,16 +3993,16 @@
         <v>128</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K8">
-        <v>0.003027365141021171</v>
+        <v>0.003150981541016383</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4022,7 +4022,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007738922006522793</v>
+        <v>0.007834299489242993</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -4043,28 +4043,28 @@
         <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>309</v>
+        <v>91</v>
       </c>
       <c r="K9">
-        <v>0.002985022284475978</v>
+        <v>0.003087151272689736</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>419</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>442</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>271</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4072,7 +4072,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006975770027833648</v>
+        <v>0.007061742128951738</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -4093,16 +4093,16 @@
         <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K10">
-        <v>0.002942070084237668</v>
+        <v>0.003027365141021171</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>131</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4122,7 +4122,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006975770027833648</v>
+        <v>0.007061742128951738</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -4143,28 +4143,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="K11">
-        <v>0.00293238263005002</v>
+        <v>0.002985022284475978</v>
       </c>
       <c r="L11">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4172,7 +4172,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006702103055555179</v>
+        <v>0.006784702378539884</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -4193,28 +4193,28 @@
         <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>112</v>
+        <v>310</v>
       </c>
       <c r="K12">
-        <v>0.002910202813849732</v>
+        <v>0.002942070084237668</v>
       </c>
       <c r="L12">
-        <v>405</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>429</v>
+        <v>34</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1714</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4222,7 +4222,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006702103055555179</v>
+        <v>0.006784702378539884</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -4243,28 +4243,28 @@
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K13">
-        <v>0.00283921985630622</v>
+        <v>0.00293238263005002</v>
       </c>
       <c r="L13">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="M13">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="N13">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>687</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4272,7 +4272,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006416775144365112</v>
+        <v>0.006495857975272989</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -4293,28 +4293,28 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="K14">
-        <v>0.002828078805385239</v>
+        <v>0.002910202813849732</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>405</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>429</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>41</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4322,7 +4322,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006416775144365112</v>
+        <v>0.006495857975272989</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -4343,28 +4343,28 @@
         <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K15">
-        <v>0.00276448002388335</v>
+        <v>0.00283921985630622</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="M15">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O15">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4372,7 +4372,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006416775144365112</v>
+        <v>0.006495857975272989</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -4393,28 +4393,28 @@
         <v>14</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>311</v>
+        <v>169</v>
       </c>
       <c r="K16">
-        <v>0.002669885096976001</v>
+        <v>0.002828078805385239</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>115</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4422,7 +4422,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006416775144365112</v>
+        <v>0.006495857975272989</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -4443,16 +4443,16 @@
         <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K17">
-        <v>0.002656163891500685</v>
+        <v>0.00276448002388335</v>
       </c>
       <c r="L17">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M17">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N17">
         <v>0.98</v>
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>366</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4472,7 +4472,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006416775144365112</v>
+        <v>0.006495857975272989</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -4493,16 +4493,16 @@
         <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K18">
-        <v>0.002471833286863569</v>
+        <v>0.002669885096976001</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4522,7 +4522,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005804191504892094</v>
+        <v>0.005875724616932244</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -4543,28 +4543,28 @@
         <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="K19">
-        <v>0.002463264462805932</v>
+        <v>0.002656163891500685</v>
       </c>
       <c r="L19">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="M19">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>709</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4572,7 +4572,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005804191504892094</v>
+        <v>0.005875724616932244</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -4593,16 +4593,16 @@
         <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K20">
-        <v>0.002419788862647898</v>
+        <v>0.002471833286863569</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4622,7 +4622,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005804191504892094</v>
+        <v>0.005875724616932244</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -4643,28 +4643,28 @@
         <v>28</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="K21">
-        <v>0.002419788862647898</v>
+        <v>0.002463264462805932</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>277</v>
+        <v>709</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4672,7 +4672,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005804191504892094</v>
+        <v>0.005875724616932244</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -4693,16 +4693,16 @@
         <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K22">
-        <v>0.00236660019469763</v>
+        <v>0.002419788862647898</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4722,7 +4722,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005804191504892094</v>
+        <v>0.005875724616932244</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -4743,16 +4743,16 @@
         <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K23">
-        <v>0.00236660019469763</v>
+        <v>0.002419788862647898</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>79</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4772,7 +4772,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005804191504892094</v>
+        <v>0.005875724616932244</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -4793,16 +4793,16 @@
         <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K24">
-        <v>0.002312188319166696</v>
+        <v>0.00236660019469763</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4822,7 +4822,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005804191504892094</v>
+        <v>0.005875724616932244</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -4843,16 +4843,16 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K25">
-        <v>0.002312188319166696</v>
+        <v>0.00236660019469763</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4872,7 +4872,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005804191504892094</v>
+        <v>0.005875724616932244</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K26">
         <v>0.002312188319166696</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4922,7 +4922,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.00547224422988607</v>
+        <v>0.005539686294690026</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4943,28 +4943,28 @@
         <v>23</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="K27">
-        <v>0.002263023864037279</v>
+        <v>0.002312188319166696</v>
       </c>
       <c r="L27">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>449</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4972,7 +4972,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.00547224422988607</v>
+        <v>0.005539686294690026</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -4993,16 +4993,16 @@
         <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K28">
-        <v>0.002256464749345525</v>
+        <v>0.002312188319166696</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>96</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -5022,7 +5022,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.00547224422988607</v>
+        <v>0.005539686294690026</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -5043,28 +5043,28 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="K29">
-        <v>0.002199329785818174</v>
+        <v>0.002263023864037279</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>79</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5072,7 +5072,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.00547224422988607</v>
+        <v>0.005539686294690026</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -5093,28 +5093,28 @@
         <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>153</v>
+        <v>320</v>
       </c>
       <c r="K30">
-        <v>0.002193710379288437</v>
+        <v>0.002256464749345525</v>
       </c>
       <c r="L30">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5122,7 +5122,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.00547224422988607</v>
+        <v>0.005539686294690026</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -5143,16 +5143,16 @@
         <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K31">
-        <v>0.002140670420343839</v>
+        <v>0.002199329785818174</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5172,7 +5172,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005118815761246073</v>
+        <v>0.005181902036234325</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -5193,28 +5193,28 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>323</v>
+        <v>151</v>
       </c>
       <c r="K32">
-        <v>0.002080357707290532</v>
+        <v>0.002193710379288437</v>
       </c>
       <c r="L32">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5222,7 +5222,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005118815761246073</v>
+        <v>0.005181902036234325</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -5243,16 +5243,16 @@
         <v>159</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K33">
-        <v>0.002080357707290532</v>
+        <v>0.002140670420343839</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5272,7 +5272,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005118815761246073</v>
+        <v>0.005181902036234325</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -5293,7 +5293,7 @@
         <v>6</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K34">
         <v>0.002080357707290532</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5322,7 +5322,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005118815761246073</v>
+        <v>0.005181902036234325</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -5343,28 +5343,28 @@
         <v>3</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>152</v>
+        <v>324</v>
       </c>
       <c r="K35">
-        <v>0.0020543930471484</v>
+        <v>0.002080357707290532</v>
       </c>
       <c r="L35">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5372,7 +5372,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005118815761246073</v>
+        <v>0.005181902036234325</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -5393,28 +5393,28 @@
         <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>157</v>
+        <v>325</v>
       </c>
       <c r="K36">
-        <v>0.002019654969927098</v>
+        <v>0.002080357707290532</v>
       </c>
       <c r="L36">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1028</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5422,7 +5422,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005118815761246073</v>
+        <v>0.005181902036234325</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -5443,28 +5443,28 @@
         <v>245</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>326</v>
+        <v>155</v>
       </c>
       <c r="K37">
-        <v>0.002018243427347448</v>
+        <v>0.002019654969927098</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>108</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5472,7 +5472,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004739102518794148</v>
+        <v>0.00479750906019805</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -5493,7 +5493,7 @@
         <v>24</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K38">
         <v>0.002018243427347448</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>53</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5522,7 +5522,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004739102518794148</v>
+        <v>0.00479750906019805</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -5543,7 +5543,7 @@
         <v>24</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K39">
         <v>0.002018243427347448</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>112</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5572,7 +5572,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004739102518794148</v>
+        <v>0.00479750906019805</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -5593,28 +5593,28 @@
         <v>2</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>162</v>
+        <v>328</v>
       </c>
       <c r="K40">
-        <v>0.002016622554311041</v>
+        <v>0.002018243427347448</v>
       </c>
       <c r="L40">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5622,7 +5622,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004739102518794148</v>
+        <v>0.00479750906019805</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -5643,28 +5643,28 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K41">
-        <v>0.001965867258396689</v>
+        <v>0.002016622554311041</v>
       </c>
       <c r="L41">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="M41">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5672,7 +5672,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004739102518794148</v>
+        <v>0.00479750906019805</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5693,7 +5693,7 @@
         <v>16</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K42">
         <v>0.001954782571342667</v>
@@ -5722,7 +5722,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004326188919788509</v>
+        <v>0.004379506553509803</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -5772,7 +5772,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004326188919788509</v>
+        <v>0.004379506553509803</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5822,7 +5822,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004326188919788509</v>
+        <v>0.004379506553509803</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5872,7 +5872,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004326188919788509</v>
+        <v>0.004379506553509803</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5922,7 +5922,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004326188919788509</v>
+        <v>0.004379506553509803</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -5972,7 +5972,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004326188919788509</v>
+        <v>0.004379506553509803</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -6022,7 +6022,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004326188919788509</v>
+        <v>0.004379506553509803</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -6072,7 +6072,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004326188919788509</v>
+        <v>0.004379506553509803</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -6122,7 +6122,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004326188919788509</v>
+        <v>0.004379506553509803</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -6143,7 +6143,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K51">
         <v>0.001871077469157299</v>
@@ -6172,7 +6172,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004326188919788509</v>
+        <v>0.004379506553509803</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -6222,7 +6222,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004326188919788509</v>
+        <v>0.004379506553509803</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -6272,7 +6272,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6293,7 +6293,7 @@
         <v>10</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K54">
         <v>0.001751211270311942</v>
@@ -6322,7 +6322,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6372,7 +6372,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -6422,7 +6422,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -6472,7 +6472,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -6522,7 +6522,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6572,7 +6572,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6622,7 +6622,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6643,7 +6643,7 @@
         <v>12</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K61">
         <v>0.001720649730155882</v>
@@ -6672,7 +6672,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6693,7 +6693,7 @@
         <v>5</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K62">
         <v>0.001719689016455306</v>
@@ -6722,7 +6722,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6772,7 +6772,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6822,7 +6822,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6872,7 +6872,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -6922,7 +6922,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -6972,7 +6972,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -7022,7 +7022,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -7043,7 +7043,7 @@
         <v>22</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K69">
         <v>0.001639224348326925</v>
@@ -7072,7 +7072,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003869461003261397</v>
+        <v>0.003917149744621496</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -7093,7 +7093,7 @@
         <v>22</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K70">
         <v>0.00161705061374971</v>
@@ -7122,7 +7122,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003420470641131158</v>
+        <v>0.00346262585075783</v>
       </c>
       <c r="C71">
         <v>24</v>
@@ -7143,7 +7143,7 @@
         <v>2441</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K71">
         <v>0.001612096609410152</v>
@@ -7172,7 +7172,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7222,7 +7222,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -7272,7 +7272,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -7322,7 +7322,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7372,7 +7372,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -7422,7 +7422,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -7472,7 +7472,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -7522,7 +7522,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -7543,7 +7543,7 @@
         <v>31</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K79">
         <v>0.00157264214893704</v>
@@ -7572,7 +7572,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -7593,7 +7593,7 @@
         <v>3</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K80">
         <v>0.001551901062724526</v>
@@ -7622,7 +7622,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -7672,7 +7672,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -7722,7 +7722,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -7772,7 +7772,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -7822,7 +7822,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.00335105152777759</v>
+        <v>0.003392351189269942</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -7872,7 +7872,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002773458937331562</v>
+        <v>0.00280764012324448</v>
       </c>
       <c r="C86">
         <v>23</v>
@@ -7922,7 +7922,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7972,7 +7972,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -8022,7 +8022,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -8072,7 +8072,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -8122,7 +8122,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -8172,7 +8172,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8222,7 +8222,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8243,7 +8243,7 @@
         <v>11</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K93">
         <v>0.001471989888928524</v>
@@ -8272,7 +8272,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8293,7 +8293,7 @@
         <v>4</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K94">
         <v>0.001434796538773324</v>
@@ -8322,7 +8322,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8372,7 +8372,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -8422,7 +8422,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -8472,7 +8472,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -8522,7 +8522,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -8572,7 +8572,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -8622,7 +8622,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -8672,7 +8672,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -8722,7 +8722,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -8772,7 +8772,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -8822,7 +8822,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -8872,7 +8872,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002736122114943035</v>
+        <v>0.002769843147345013</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -8922,7 +8922,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002716491112788966</v>
+        <v>0.002749970205090352</v>
       </c>
       <c r="C107">
         <v>24</v>
@@ -8972,7 +8972,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9022,7 +9022,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9072,7 +9072,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9122,7 +9122,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9172,7 +9172,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9222,7 +9222,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9272,7 +9272,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9322,7 +9322,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9372,7 +9372,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9422,7 +9422,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9472,7 +9472,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9493,7 +9493,7 @@
         <v>19</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K118">
         <v>0.001248644416268226</v>
@@ -9522,7 +9522,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9572,7 +9572,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9622,7 +9622,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9672,7 +9672,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9722,7 +9722,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9772,7 +9772,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9822,7 +9822,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9872,7 +9872,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9922,7 +9922,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9972,7 +9972,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -10022,7 +10022,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -10072,7 +10072,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -10122,7 +10122,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10172,7 +10172,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10222,7 +10222,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10272,7 +10272,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10322,7 +10322,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10372,7 +10372,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10422,7 +10422,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10472,7 +10472,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10522,7 +10522,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10572,7 +10572,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10622,7 +10622,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10672,7 +10672,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10722,7 +10722,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001934730501630698</v>
+        <v>0.001958574872310748</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10772,7 +10772,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.00188097725094606</v>
+        <v>0.001904159145672222</v>
       </c>
       <c r="C144">
         <v>6</v>
@@ -10822,25 +10822,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001874782412028961</v>
+        <v>0.001859948075383263</v>
       </c>
       <c r="C145">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D145">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="E145">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F145">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>134</v>
+        <v>709</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>419</v>
@@ -10872,13 +10872,13 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001837304421580659</v>
+        <v>0.001759272074059489</v>
       </c>
       <c r="C146">
         <v>7</v>
       </c>
       <c r="D146">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E146">
         <v>0.96</v>
@@ -10890,7 +10890,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>709</v>
+        <v>124</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>420</v>
@@ -10922,13 +10922,13 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001739856896834202</v>
+        <v>0.001607244656809406</v>
       </c>
       <c r="C147">
         <v>8</v>
       </c>
       <c r="D147">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="E147">
         <v>0.95</v>
@@ -10940,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>421</v>
@@ -10972,25 +10972,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.00173785408486031</v>
+        <v>0.001581549648426372</v>
       </c>
       <c r="C148">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="E148">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F148">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>422</v>
@@ -11022,13 +11022,13 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001587677502184738</v>
+        <v>0.00157137029357531</v>
       </c>
       <c r="C149">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D149">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E149">
         <v>0.95</v>
@@ -11040,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>272</v>
+        <v>729</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>423</v>
@@ -11072,25 +11072,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001562295313757262</v>
+        <v>0.00154947232171376</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D150">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="E150">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F150">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>165</v>
+        <v>1028</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>424</v>
@@ -11122,13 +11122,13 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001552239885907299</v>
+        <v>0.00145283686160311</v>
       </c>
       <c r="C151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D151">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="E151">
         <v>0.95</v>
@@ -11140,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>729</v>
+        <v>532</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>425</v>
@@ -11172,25 +11172,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001530608507560038</v>
+        <v>0.001418820529321783</v>
       </c>
       <c r="C152">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D152">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E152">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F152">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>1028</v>
+        <v>449</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>426</v>
@@ -11222,25 +11222,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001435149521100863</v>
+        <v>0.00136283799914312</v>
       </c>
       <c r="C153">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E153">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F153">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>532</v>
+        <v>34</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>427</v>
@@ -11272,25 +11272,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001401547315462106</v>
+        <v>0.001360700729882799</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D154">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E154">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F154">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>449</v>
+        <v>313</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>428</v>
@@ -11322,25 +11322,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001346246336047755</v>
+        <v>0.001349121873056738</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E155">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F155">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>429</v>
@@ -11372,25 +11372,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001344135086645653</v>
+        <v>0.001342318221355063</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="E156">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F156">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>430</v>
@@ -11422,13 +11422,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.00133269719484376</v>
+        <v>0.00130448036098287</v>
       </c>
       <c r="C157">
         <v>3</v>
       </c>
       <c r="D157">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E157">
         <v>0.97</v>
@@ -11472,25 +11472,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001325976373160711</v>
+        <v>0.001237668761146736</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D158">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E158">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F158">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>366</v>
+        <v>130</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>432</v>
@@ -11522,25 +11522,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001288599164041227</v>
+        <v>0.001175911043442909</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D159">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E159">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F159">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>433</v>
@@ -11572,25 +11572,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001222600951824193</v>
+        <v>0.001126118253391938</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D160">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E160">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F160">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>434</v>
@@ -11622,25 +11622,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.00116159509402325</v>
+        <v>0.001110842818402501</v>
       </c>
       <c r="C161">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E161">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F161">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>435</v>
@@ -11672,25 +11672,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.00111240849869067</v>
+        <v>0.001104603823464029</v>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D162">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E162">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F162">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>436</v>
@@ -11722,25 +11722,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001097319032151731</v>
+        <v>0.001099366795333746</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="E163">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F163">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>437</v>
@@ -11772,25 +11772,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001091155992904352</v>
+        <v>0.001097787117269987</v>
       </c>
       <c r="C164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="E164">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F164">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>438</v>
@@ -11822,13 +11822,13 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.00108598272217327</v>
+        <v>0.001079149328677412</v>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
       <c r="D165">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E165">
         <v>0.97</v>
@@ -11840,7 +11840,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>439</v>
@@ -11872,28 +11872,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001084422275658858</v>
+        <v>0.001038403913806963</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D166">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="E166">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F166">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K166">
         <v>0.001127015171970727</v>
@@ -11922,28 +11922,28 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001066011389977243</v>
+        <v>0.0009972454307946737</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D167">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E167">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F167">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K167">
         <v>0.001112025927893166</v>
@@ -11972,28 +11972,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001025762023937716</v>
+        <v>0.0009693829971217087</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E168">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F168">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K168">
         <v>0.001112025927893166</v>
@@ -12022,28 +12022,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0009851046185913599</v>
+        <v>0.0009636719908528063</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E169">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F169">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K169">
         <v>0.001079823412884351</v>
@@ -12072,13 +12072,13 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0009575813918621472</v>
+        <v>0.0009222849598226311</v>
       </c>
       <c r="C170">
         <v>2</v>
       </c>
       <c r="D170">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E170">
         <v>0.96</v>
@@ -12090,10 +12090,10 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K170">
         <v>0.001049420088573383</v>
@@ -12122,13 +12122,13 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0009519399133669116</v>
+        <v>0.0009174473673921893</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E171">
         <v>0.98</v>
@@ -12140,10 +12140,10 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K171">
         <v>0.001030484195851726</v>
@@ -12172,28 +12172,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0009110567424256112</v>
+        <v>0.0008939632123784357</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E172">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F172">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K172">
         <v>0.001027390873776073</v>
@@ -12222,13 +12222,13 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.000906278044525443</v>
+        <v>0.0008614004841089648</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E173">
         <v>0.98</v>
@@ -12240,10 +12240,10 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K173">
         <v>0.001011913011026525</v>
@@ -12272,25 +12272,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.000883079793770532</v>
+        <v>0.0008225759374280013</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E174">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F174">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>440</v>
@@ -12322,25 +12322,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.000850913495463575</v>
+        <v>0.0008176588901175235</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D175">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E175">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F175">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>441</v>
@@ -12372,25 +12372,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0008125616122971054</v>
+        <v>0.0008159040048526183</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D176">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E176">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F176">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>442</v>
@@ -12422,25 +12422,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0008077044268282043</v>
+        <v>0.0007795987291669855</v>
       </c>
       <c r="C177">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D177">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E177">
-        <v>0.93</v>
+        <v>0.15</v>
       </c>
       <c r="F177">
-        <v>0.06999999999999995</v>
+        <v>0.85</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>443</v>
@@ -12472,25 +12472,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0008059709061459602</v>
+        <v>0.0007702155608454122</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E178">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F178">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>500</v>
+        <v>63</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>444</v>
@@ -12522,25 +12522,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.000770107623494818</v>
+        <v>0.0007630738082207086</v>
       </c>
       <c r="C179">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E179">
-        <v>0.15</v>
+        <v>0.97</v>
       </c>
       <c r="F179">
-        <v>0.85</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>445</v>
@@ -12572,25 +12572,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0007608386891230293</v>
+        <v>0.0007630738082207086</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E180">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F180">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>446</v>
@@ -12622,25 +12622,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0007537838826750055</v>
+        <v>0.0007552437222701418</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D181">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E181">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F181">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>447</v>
@@ -12672,25 +12672,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0007537838826750055</v>
+        <v>0.0007267343543777173</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E182">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F182">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>13</v>
+        <v>329</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>448</v>
@@ -12722,25 +12722,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0007460491229100757</v>
+        <v>0.0007267343543777173</v>
       </c>
       <c r="C183">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E183">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F183">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>449</v>
@@ -12772,25 +12772,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0007178868379632621</v>
+        <v>0.0007113142821629665</v>
       </c>
       <c r="C184">
         <v>2</v>
       </c>
       <c r="D184">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E184">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F184">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>329</v>
+        <v>101</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>450</v>
@@ -12822,25 +12822,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0007178868379632621</v>
+        <v>0.0007113142821629665</v>
       </c>
       <c r="C185">
         <v>2</v>
       </c>
       <c r="D185">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E185">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F185">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>451</v>
@@ -12872,13 +12872,13 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0007026544950628202</v>
+        <v>0.0006953846239252862</v>
       </c>
       <c r="C186">
         <v>2</v>
       </c>
       <c r="D186">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E186">
         <v>0.93</v>
@@ -12890,7 +12890,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>452</v>
@@ -12922,25 +12922,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0007026544950628202</v>
+        <v>0.0006725599112413356</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E187">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F187">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>453</v>
@@ -12972,25 +12972,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0006869187700166637</v>
+        <v>0.0006725599112413356</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E188">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F188">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>454</v>
@@ -13022,7 +13022,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0006643719333116181</v>
+        <v>0.0006725599112413356</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -13040,7 +13040,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>455</v>
@@ -13072,25 +13072,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0006643719333116181</v>
+        <v>0.0006618673044051886</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E190">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F190">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>456</v>
@@ -13122,13 +13122,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0006643719333116181</v>
+        <v>0.0006450462149160529</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E191">
         <v>0.96</v>
@@ -13140,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>457</v>
@@ -13172,25 +13172,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.000653809501984481</v>
+        <v>0.0006450462149160529</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E192">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F192">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>458</v>
@@ -13222,25 +13222,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0006371931982805055</v>
+        <v>0.0006149078295615432</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E193">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F193">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>459</v>
@@ -13272,25 +13272,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0006371931982805055</v>
+        <v>0.0006017332466694208</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E194">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F194">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>460</v>
@@ -13322,13 +13322,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.000607421728095924</v>
+        <v>0.0005987046764773856</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E195">
         <v>0.95</v>
@@ -13340,7 +13340,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>461</v>
@@ -13372,25 +13372,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0005944075371512712</v>
+        <v>0.0005816490233962209</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E196">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F196">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>462</v>
@@ -13422,13 +13422,13 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0005914158378245322</v>
+        <v>0.0005816490233962209</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E197">
         <v>0.95</v>
@@ -13440,7 +13440,7 @@
         <v>1</v>
       </c>
       <c r="H197">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>463</v>
@@ -13472,25 +13472,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0005745678261871575</v>
+        <v>0.0005665412846359973</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E198">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F198">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>464</v>
@@ -13522,25 +13522,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0005745678261871575</v>
+        <v>0.0005636552564849564</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E199">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F199">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>465</v>
@@ -13572,25 +13572,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0005596440142852986</v>
+        <v>0.0005636552564849564</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E200">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F200">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>466</v>
@@ -13622,13 +13622,13 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0005567931216432441</v>
+        <v>0.0005244425953715107</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E201">
         <v>0.9399999999999999</v>
@@ -13640,7 +13640,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>467</v>
@@ -13672,13 +13672,13 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0005567931216432441</v>
+        <v>0.0005244425953715107</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E202">
         <v>0.9399999999999999</v>
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>468</v>
@@ -13722,25 +13722,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0005180578490841797</v>
+        <v>0.0005227299937209693</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D203">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E203">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F203">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>469</v>
@@ -13772,25 +13772,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0005180578490841797</v>
+        <v>0.0005226364617824244</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D204">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E204">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="F204">
-        <v>0.06000000000000005</v>
+        <v>0.21</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>56</v>
+        <v>910</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>470</v>
@@ -13822,25 +13822,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0005163660972408937</v>
+        <v>0.0005147550638296164</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D205">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E205">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F205">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>471</v>
@@ -13872,25 +13872,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0005162737039926509</v>
+        <v>0.0005029751524722748</v>
       </c>
       <c r="C206">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E206">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="F206">
-        <v>0.21</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>910</v>
+        <v>18</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>472</v>
@@ -13922,25 +13922,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0005084882569156152</v>
+        <v>0.00049934643887448</v>
       </c>
       <c r="C207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E207">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F207">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>473</v>
@@ -13972,25 +13972,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0004968517582901296</v>
+        <v>0.00049934643887448</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E208">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F208">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>474</v>
@@ -14022,25 +14022,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0004932672219118737</v>
+        <v>0.0004800645474255955</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E209">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F209">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>475</v>
@@ -14072,25 +14072,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0004932672219118737</v>
+        <v>0.0004800645474255955</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E210">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F210">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>476</v>
@@ -14122,7 +14122,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.000474220074905808</v>
+        <v>0.0004800645474255955</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -14140,7 +14140,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>477</v>
@@ -14172,25 +14172,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.000474220074905808</v>
+        <v>0.000474868534962961</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E212">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F212">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>478</v>
@@ -14222,25 +14222,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.000474220074905808</v>
+        <v>0.0004555234333817049</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E213">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F213">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>479</v>
@@ -14272,25 +14272,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0004690873205033932</v>
+        <v>0.000429127398626087</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E214">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F214">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>480</v>
@@ -14322,13 +14322,13 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0004499777329070594</v>
+        <v>0.000429127398626087</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E215">
         <v>0.92</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>481</v>
@@ -14372,25 +14372,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0004239030526455151</v>
+        <v>0.0004006051841882517</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E216">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F216">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>482</v>
@@ -14422,25 +14422,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0004239030526455151</v>
+        <v>0.0004006051841882517</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E217">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F217">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>483</v>
@@ -14472,7 +14472,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0003957280775515957</v>
+        <v>0.0004006051841882517</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14490,7 +14490,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>484</v>
@@ -14522,25 +14522,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0003957280775515957</v>
+        <v>0.0003696259232896988</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E219">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F219">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>485</v>
@@ -14572,25 +14572,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0003957280775515957</v>
+        <v>0.0003639867962840359</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E220">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F220">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>486</v>
@@ -14622,25 +14622,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0003651259689338681</v>
+        <v>0.0003357827612444312</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E221">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F221">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>487</v>
@@ -14672,25 +14672,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0003595554946187589</v>
+        <v>0.0003357827612444312</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E222">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F222">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>488</v>
@@ -14722,7 +14722,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0003316948252965771</v>
+        <v>0.0003357827612444312</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14740,7 +14740,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>489</v>
@@ -14772,25 +14772,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0003316948252965771</v>
+        <v>0.0002637133822847431</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E224">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="F224">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>490</v>
@@ -14822,25 +14822,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0003316948252965771</v>
+        <v>0.0002573775319148082</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E225">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F225">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>491</v>
@@ -14872,25 +14872,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0002605028439849903</v>
+        <v>0.0002573775319148082</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E226">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F226">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>492</v>
@@ -14922,7 +14922,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0002542441284578076</v>
+        <v>0.0002573775319148082</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14940,7 +14940,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>493</v>
@@ -14972,7 +14972,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0002542441284578076</v>
+        <v>0.0002573775319148082</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14990,7 +14990,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>88</v>
+        <v>179</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>494</v>
@@ -15022,7 +15022,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0002542441284578076</v>
+        <v>0.0002573775319148082</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -15040,7 +15040,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>495</v>
@@ -15072,7 +15072,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0002542441284578076</v>
+        <v>0.0002573775319148082</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -15090,7 +15090,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>496</v>
@@ -15122,7 +15122,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0002542441284578076</v>
+        <v>0.0002573775319148082</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -15140,7 +15140,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>497</v>
@@ -15172,25 +15172,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0002542441284578076</v>
+        <v>0.0002263077241537122</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E232">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F232">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>498</v>
@@ -15222,25 +15222,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0002542441284578076</v>
+        <v>0.0002263077241537122</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E233">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F233">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>499</v>
@@ -15272,7 +15272,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.000223552575326487</v>
+        <v>0.0002263077241537122</v>
       </c>
       <c r="C234">
         <v>2</v>
@@ -15290,7 +15290,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>500</v>
@@ -15322,25 +15322,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.000223552575326487</v>
+        <v>0.0002114565828401487</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E235">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F235">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>501</v>
@@ -15372,25 +15372,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.000223552575326487</v>
+        <v>0.0002114565828401487</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E236">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F236">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>502</v>
@@ -15422,7 +15422,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0002088822369648601</v>
+        <v>0.0002114565828401487</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15440,7 +15440,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>503</v>
@@ -15472,7 +15472,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0002088822369648601</v>
+        <v>0.0002114565828401487</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15490,10 +15490,10 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K238">
         <v>0.0008990536959464</v>
@@ -15522,25 +15522,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0002088822369648601</v>
+        <v>0.0001867730456980584</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E239">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F239">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>504</v>
@@ -15572,25 +15572,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0002088822369648601</v>
+        <v>0.0001867730456980584</v>
       </c>
       <c r="C240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E240">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F240">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>505</v>
@@ -15622,25 +15622,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001844992057761706</v>
+        <v>0.0001600237263839845</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E241">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F241">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>506</v>
@@ -15672,25 +15672,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0001844992057761706</v>
+        <v>0.0001600237263839845</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E242">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F242">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>507</v>
@@ -15722,7 +15722,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001580755419650754</v>
+        <v>0.0001600237263839845</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15740,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>508</v>
@@ -15772,7 +15772,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001580755419650754</v>
+        <v>0.0001600237263839845</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15790,7 +15790,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>509</v>
@@ -15822,7 +15822,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001580755419650754</v>
+        <v>0.0001600237263839845</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15840,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>510</v>
@@ -15872,7 +15872,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001580755419650754</v>
+        <v>0.0001600237263839845</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15890,7 +15890,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>511</v>
@@ -15922,7 +15922,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001580755419650754</v>
+        <v>0.0001600237263839845</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15940,7 +15940,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>512</v>
@@ -15972,25 +15972,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0001580755419650754</v>
+        <v>0.0001452191846493831</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E248">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F248">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>513</v>
@@ -16022,25 +16022,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0001580755419650754</v>
+        <v>0.0001026854702239606</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E249">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F249">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>514</v>
@@ -16072,13 +16072,13 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0001434512358629528</v>
+        <v>0.0001026854702239606</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E250">
         <v>0.75</v>
@@ -16090,7 +16090,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>515</v>
@@ -16122,7 +16122,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0001014353416482852</v>
+        <v>0.0001026854702239606</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -16140,7 +16140,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>516</v>
@@ -16172,7 +16172,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0001014353416482852</v>
+        <v>0.0001026854702239606</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -16190,7 +16190,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>517</v>
@@ -16222,7 +16222,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0001014353416482852</v>
+        <v>0.0001026854702239606</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16240,7 +16240,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>518</v>
@@ -16272,7 +16272,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0001014353416482852</v>
+        <v>0.0001026854702239606</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16290,7 +16290,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>519</v>
@@ -16322,7 +16322,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0001014353416482852</v>
+        <v>0.0001026854702239606</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16340,7 +16340,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>520</v>
@@ -16372,7 +16372,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0001014353416482852</v>
+        <v>0.0001026854702239606</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16390,7 +16390,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>521</v>
@@ -16422,7 +16422,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0001014353416482852</v>
+        <v>0.0001026854702239606</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16440,7 +16440,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>522</v>
@@ -16472,7 +16472,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0001014353416482852</v>
+        <v>0.0001026854702239606</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16490,7 +16490,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>523</v>
@@ -16522,7 +16522,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0001014353416482852</v>
+        <v>0.0001026854702239606</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16540,7 +16540,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>524</v>
@@ -16572,7 +16572,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0001014353416482852</v>
+        <v>0.0001026854702239606</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16590,7 +16590,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>525</v>
@@ -16622,7 +16622,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0001014353416482852</v>
+        <v>0.0001026854702239606</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16640,7 +16640,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>526</v>
@@ -16672,25 +16672,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0001014353416482852</v>
+        <v>0.0001021565916610454</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E262">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F262">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>527</v>
@@ -16722,25 +16722,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0001014353416482852</v>
+        <v>0.0001021565916610454</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E263">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F263">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>528</v>
@@ -16772,7 +16772,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.0001009129018366669</v>
+        <v>0.0001021565916610454</v>
       </c>
       <c r="C264">
         <v>2</v>
@@ -16790,7 +16790,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>529</v>
@@ -16822,25 +16822,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0001009129018366669</v>
+        <v>7.239248823365666E-05</v>
       </c>
       <c r="C265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D265">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E265">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F265">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>530</v>
@@ -16872,25 +16872,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0001009129018366669</v>
+        <v>5.910821912763163E-05</v>
       </c>
       <c r="C266">
         <v>2</v>
       </c>
       <c r="D266">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E266">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="F266">
-        <v>0.29</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>531</v>
@@ -16922,25 +16922,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>7.151115694104291E-05</v>
+        <v>5.910821912763163E-05</v>
       </c>
       <c r="C267">
+        <v>2</v>
+      </c>
+      <c r="D267">
         <v>3</v>
       </c>
-      <c r="D267">
-        <v>9</v>
-      </c>
       <c r="E267">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F267">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>532</v>
@@ -16972,25 +16972,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>5.838861514054787E-05</v>
+        <v>4.179582256900806E-05</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
         <v>3</v>
       </c>
       <c r="E268">
+        <v>0.67</v>
+      </c>
+      <c r="F268">
         <v>0.33</v>
       </c>
-      <c r="F268">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>533</v>
@@ -17022,25 +17022,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>5.838861514054787E-05</v>
+        <v>4.179582256900806E-05</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269">
         <v>3</v>
       </c>
       <c r="E269">
+        <v>0.67</v>
+      </c>
+      <c r="F269">
         <v>0.33</v>
       </c>
-      <c r="F269">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>534</v>
@@ -17072,7 +17072,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>4.128698570997227E-05</v>
+        <v>4.179582256900806E-05</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -17090,7 +17090,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>535</v>
@@ -17122,7 +17122,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>4.128698570997227E-05</v>
+        <v>4.179582256900806E-05</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>536</v>
@@ -17172,7 +17172,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>4.128698570997227E-05</v>
+        <v>4.179582256900806E-05</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -17190,7 +17190,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>537</v>
@@ -17222,7 +17222,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>4.128698570997227E-05</v>
+        <v>4.179582256900806E-05</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -17240,7 +17240,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>538</v>
@@ -17272,7 +17272,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>4.128698570997227E-05</v>
+        <v>4.179582256900806E-05</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -17290,7 +17290,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>539</v>
@@ -17322,7 +17322,7 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>4.128698570997227E-05</v>
+        <v>4.179582256900806E-05</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -17340,7 +17340,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>540</v>
@@ -17372,7 +17372,7 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>4.128698570997227E-05</v>
+        <v>4.179582256900806E-05</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -17390,7 +17390,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>541</v>
@@ -17422,7 +17422,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>4.128698570997227E-05</v>
+        <v>4.179582256900806E-05</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17440,7 +17440,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>542</v>
@@ -17472,25 +17472,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>4.128698570997227E-05</v>
+        <v>3.958589421085458E-05</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D278">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E278">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="F278">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>543</v>
@@ -17522,25 +17522,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>4.128698570997227E-05</v>
+        <v>2.042490020602234E-05</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E279">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F279">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>544</v>
@@ -17572,25 +17572,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>3.91039617871269E-05</v>
+        <v>1.262492726293566E-05</v>
       </c>
       <c r="C280">
         <v>3</v>
       </c>
       <c r="D280">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E280">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="F280">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>545</v>
@@ -17622,25 +17622,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>2.017624037764374E-05</v>
+        <v>0</v>
       </c>
       <c r="C281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E281">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F281">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>546</v>
@@ -17672,25 +17672,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>1.247122701398324E-05</v>
+        <v>0</v>
       </c>
       <c r="C282">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E282">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F282">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>547</v>
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>548</v>
@@ -17790,7 +17790,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>549</v>
@@ -17840,7 +17840,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>550</v>
@@ -17890,7 +17890,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>551</v>
@@ -17940,7 +17940,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>552</v>
@@ -17975,10 +17975,10 @@
         <v>0</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D288">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E288">
         <v>0.5</v>
@@ -17990,7 +17990,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>553</v>
@@ -18040,7 +18040,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>554</v>
@@ -18075,10 +18075,10 @@
         <v>0</v>
       </c>
       <c r="C290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D290">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E290">
         <v>0.5</v>
@@ -18090,7 +18090,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>555</v>
@@ -18140,7 +18140,7 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>556</v>
@@ -18190,7 +18190,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>557</v>
@@ -18240,7 +18240,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>558</v>
@@ -18290,7 +18290,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>559</v>
@@ -18340,7 +18340,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>560</v>
@@ -18390,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>561</v>
@@ -18440,7 +18440,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>562</v>
@@ -18490,7 +18490,7 @@
         <v>1</v>
       </c>
       <c r="H298">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>563</v>
@@ -18518,30 +18518,6 @@
       </c>
     </row>
     <row r="299" spans="1:17">
-      <c r="A299" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-      <c r="C299">
-        <v>1</v>
-      </c>
-      <c r="D299">
-        <v>2</v>
-      </c>
-      <c r="E299">
-        <v>0.5</v>
-      </c>
-      <c r="F299">
-        <v>0.5</v>
-      </c>
-      <c r="G299" t="b">
-        <v>1</v>
-      </c>
-      <c r="H299">
-        <v>27</v>
-      </c>
       <c r="J299" s="1" t="s">
         <v>564</v>
       </c>
@@ -18568,30 +18544,6 @@
       </c>
     </row>
     <row r="300" spans="1:17">
-      <c r="A300" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B300">
-        <v>0</v>
-      </c>
-      <c r="C300">
-        <v>1</v>
-      </c>
-      <c r="D300">
-        <v>2</v>
-      </c>
-      <c r="E300">
-        <v>0.5</v>
-      </c>
-      <c r="F300">
-        <v>0.5</v>
-      </c>
-      <c r="G300" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300">
-        <v>8</v>
-      </c>
       <c r="J300" s="1" t="s">
         <v>565</v>
       </c>
@@ -18749,7 +18701,7 @@
     </row>
     <row r="306" spans="10:17">
       <c r="J306" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K306">
         <v>0.0008488089985832186</v>
@@ -18775,7 +18727,7 @@
     </row>
     <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K307">
         <v>0.0008488089985832186</v>
@@ -18801,7 +18753,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K308">
         <v>0.0008488089985832186</v>
@@ -18827,7 +18779,7 @@
     </row>
     <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K309">
         <v>0.0007936804026710429</v>
@@ -18853,7 +18805,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K310">
         <v>0.0007794271842200451</v>
@@ -18879,7 +18831,7 @@
     </row>
     <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K311">
         <v>0.0007794271842200451</v>
@@ -18905,7 +18857,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K312">
         <v>0.0007496813571834137</v>
@@ -22857,7 +22809,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K464">
         <v>0.0007129073117838531</v>
@@ -22883,7 +22835,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K465">
         <v>0.0007129073117838531</v>
@@ -22909,7 +22861,7 @@
     </row>
     <row r="466" spans="10:17">
       <c r="J466" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K466">
         <v>0.0007084323714748672</v>
@@ -22935,7 +22887,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K467">
         <v>0.0006856443849657925</v>
@@ -22961,7 +22913,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K468">
         <v>0.0006856443849657925</v>
@@ -22987,7 +22939,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K469">
         <v>0.0006729369487953979</v>
@@ -23013,7 +22965,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K470">
         <v>0.0006722995615336542</v>
@@ -23039,7 +22991,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K471">
         <v>0.000658211316641043</v>
@@ -23065,7 +23017,7 @@
     </row>
     <row r="472" spans="10:17">
       <c r="J472" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K472">
         <v>0.0006357269650545279</v>
@@ -23091,7 +23043,7 @@
     </row>
     <row r="473" spans="10:17">
       <c r="J473" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K473">
         <v>0.0006357269650545279</v>
@@ -23117,7 +23069,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K474">
         <v>0.0006028361832385544</v>
@@ -23143,7 +23095,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K475">
         <v>0.000598702951651703</v>
@@ -23169,7 +23121,7 @@
     </row>
     <row r="476" spans="10:17">
       <c r="J476" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K476">
         <v>0.000598702951651703</v>
@@ -23195,7 +23147,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K477">
         <v>0.0005917405996690791</v>
@@ -23221,7 +23173,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K478">
         <v>0.0005232593104986423</v>
@@ -23247,7 +23199,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K479">
         <v>0.0005232593104986423</v>
@@ -32945,7 +32897,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K852">
         <v>0.0004848237940917915</v>
@@ -32971,7 +32923,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K853">
         <v>0.0004615353180036306</v>
@@ -32997,7 +32949,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K854">
         <v>0.0004474935311636903</v>
@@ -33023,7 +32975,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K855">
         <v>0.0004459074084720489</v>
@@ -33049,7 +33001,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K856">
         <v>0.0004459074084720489</v>
@@ -33075,7 +33027,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K857">
         <v>0.0004459074084720489</v>
@@ -33101,7 +33053,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K858">
         <v>0.000406513266521451</v>
@@ -33127,7 +33079,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K859">
         <v>0.0004039913366421457</v>
@@ -33153,7 +33105,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K860">
         <v>0.0003750462237243828</v>
@@ -33179,7 +33131,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K861">
         <v>0.0003750462237243828</v>
@@ -33205,7 +33157,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K862">
         <v>0.0003666536085669853</v>
@@ -33231,7 +33183,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K863">
         <v>0.0003666536085669853</v>
@@ -33257,7 +33209,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K864">
         <v>0.0003460124810539425</v>
@@ -33283,7 +33235,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K865">
         <v>0.0003263547531174565</v>
@@ -33309,7 +33261,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K866">
         <v>0.0003263547531174565</v>
@@ -33335,7 +33287,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K867">
         <v>0.0003263547531174565</v>
@@ -33361,7 +33313,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K868">
         <v>0.0003248251367215921</v>
@@ -33387,7 +33339,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K869">
         <v>0.0002856650136802786</v>
@@ -33413,7 +33365,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K870">
         <v>0.0002636096927730673</v>
@@ -33439,7 +33391,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K871">
         <v>0.0002446677717284246</v>
@@ -33465,7 +33417,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K872">
         <v>0.0002446677717284246</v>
@@ -33491,7 +33443,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K873">
         <v>0.0002446677717284246</v>
@@ -33517,7 +33469,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K874">
         <v>0.0002296860568756852</v>
@@ -33543,7 +33495,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K875">
         <v>0.0001624125683607961</v>
@@ -33569,7 +33521,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K876">
         <v>0.0001624125683607961</v>
@@ -33595,7 +33547,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K877">
         <v>0.0001624125683607961</v>
@@ -33621,7 +33573,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K878">
         <v>0.0001624125683607961</v>
@@ -33647,7 +33599,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K879">
         <v>0.0001624125683607961</v>
@@ -33673,7 +33625,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K880">
         <v>0.0001624125683607961</v>
@@ -33699,7 +33651,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K881">
         <v>0.0001624125683607961</v>
@@ -33725,7 +33677,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K882">
         <v>0.0001441158683506815</v>
@@ -33751,7 +33703,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K883">
         <v>0.0001218090592148047</v>
@@ -33777,7 +33729,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K884">
         <v>0.0001218090592148047</v>
@@ -33803,7 +33755,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K885">
         <v>0.0001218090592148047</v>
@@ -33829,7 +33781,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K886">
         <v>0.0001218090592148047</v>
@@ -33855,7 +33807,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K887">
         <v>0.0001166011275056126</v>
@@ -33881,7 +33833,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K888">
         <v>0.0001166011275056126</v>
@@ -33907,7 +33859,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K889">
         <v>0.0001166011275056126</v>
@@ -33933,7 +33885,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K890">
         <v>9.001639166897382E-05</v>
@@ -33959,7 +33911,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K891">
         <v>9.001639166897382E-05</v>
@@ -33985,7 +33937,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K892">
         <v>8.563733718820412E-05</v>
@@ -34011,7 +33963,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K893">
         <v>8.244944795321591E-05</v>
@@ -34037,7 +33989,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K894">
         <v>8.244944795321591E-05</v>
@@ -34063,7 +34015,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K895">
         <v>8.244944795321591E-05</v>
@@ -34089,7 +34041,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K896">
         <v>8.244944795321591E-05</v>
@@ -34115,7 +34067,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K897">
         <v>8.244944795321591E-05</v>
@@ -34141,7 +34093,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K898">
         <v>8.244944795321591E-05</v>
@@ -34167,7 +34119,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K899">
         <v>8.244944795321591E-05</v>
@@ -34193,7 +34145,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K900">
         <v>6.479746242158243E-05</v>
@@ -34219,7 +34171,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K901">
         <v>4.581872508198142E-05</v>
@@ -34245,7 +34197,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K902">
         <v>4.581872508198142E-05</v>
@@ -34271,7 +34223,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K903">
         <v>4.581872508198142E-05</v>
@@ -34297,7 +34249,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K904">
         <v>4.581872508198142E-05</v>
@@ -34323,7 +34275,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K905">
         <v>4.581872508198142E-05</v>
@@ -34349,7 +34301,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K906">
         <v>4.581872508198142E-05</v>
@@ -34375,7 +34327,7 @@
     </row>
     <row r="907" spans="10:17">
       <c r="J907" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K907">
         <v>4.581872508198142E-05</v>
@@ -34401,7 +34353,7 @@
     </row>
     <row r="908" spans="10:17">
       <c r="J908" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K908">
         <v>4.581872508198142E-05</v>
@@ -34427,7 +34379,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K909">
         <v>4.581872508198142E-05</v>
@@ -34453,7 +34405,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K910">
         <v>4.581872508198142E-05</v>
@@ -34479,7 +34431,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K911">
         <v>4.581872508198142E-05</v>
@@ -34505,7 +34457,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K912">
         <v>4.581872508198142E-05</v>
@@ -34531,7 +34483,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K913">
         <v>4.581872508198142E-05</v>
@@ -34557,7 +34509,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K914">
         <v>4.161115553012239E-05</v>
@@ -34583,7 +34535,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K915">
         <v>4.161115553012239E-05</v>
@@ -34609,7 +34561,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K916">
         <v>4.161115553012239E-05</v>
@@ -34635,7 +34587,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K917">
         <v>2.637435692106801E-05</v>
@@ -34661,7 +34613,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K918">
         <v>1.522724206808212E-05</v>
@@ -34687,7 +34639,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K919">
         <v>1.522724206808212E-05</v>
@@ -34713,7 +34665,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K920">
         <v>1.522724206808212E-05</v>
@@ -34739,7 +34691,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K921">
         <v>1.522724206808212E-05</v>
@@ -34765,7 +34717,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K922">
         <v>1.522724206808212E-05</v>
@@ -34791,7 +34743,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K923">
         <v>1.522724206808212E-05</v>
@@ -34817,7 +34769,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K924">
         <v>1.522724206808212E-05</v>
@@ -34843,7 +34795,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K925">
         <v>1.522724206808212E-05</v>
@@ -34869,7 +34821,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K926">
         <v>1.522724206808212E-05</v>
@@ -34895,7 +34847,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K927">
         <v>1.522724206808212E-05</v>
@@ -34921,7 +34873,7 @@
     </row>
     <row r="928" spans="10:17">
       <c r="J928" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K928">
         <v>1.316552589552759E-05</v>
@@ -34947,7 +34899,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K929">
         <v>1.076728612510977E-05</v>
@@ -34973,7 +34925,7 @@
     </row>
     <row r="930" spans="10:17">
       <c r="J930" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K930">
         <v>1.076728612510977E-05</v>
@@ -34999,7 +34951,7 @@
     </row>
     <row r="931" spans="10:17">
       <c r="J931" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K931">
         <v>6.444347484983754E-06</v>
@@ -35025,7 +34977,7 @@
     </row>
     <row r="932" spans="10:17">
       <c r="J932" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K932">
         <v>3.7555334114218E-06</v>
@@ -35051,7 +35003,7 @@
     </row>
     <row r="933" spans="10:17">
       <c r="J933" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K933">
         <v>0</v>
@@ -35077,7 +35029,7 @@
     </row>
     <row r="934" spans="10:17">
       <c r="J934" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K934">
         <v>0</v>
@@ -35103,7 +35055,7 @@
     </row>
     <row r="935" spans="10:17">
       <c r="J935" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K935">
         <v>0</v>
@@ -35129,7 +35081,7 @@
     </row>
     <row r="936" spans="10:17">
       <c r="J936" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K936">
         <v>0</v>
@@ -35155,7 +35107,7 @@
     </row>
     <row r="937" spans="10:17">
       <c r="J937" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K937">
         <v>0</v>
@@ -35181,7 +35133,7 @@
     </row>
     <row r="938" spans="10:17">
       <c r="J938" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K938">
         <v>0</v>
@@ -35207,7 +35159,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K939">
         <v>0</v>
@@ -35233,7 +35185,7 @@
     </row>
     <row r="940" spans="10:17">
       <c r="J940" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K940">
         <v>0</v>
@@ -35259,7 +35211,7 @@
     </row>
     <row r="941" spans="10:17">
       <c r="J941" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K941">
         <v>0</v>
@@ -35285,7 +35237,7 @@
     </row>
     <row r="942" spans="10:17">
       <c r="J942" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K942">
         <v>0</v>
@@ -35311,7 +35263,7 @@
     </row>
     <row r="943" spans="10:17">
       <c r="J943" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K943">
         <v>0</v>
@@ -35337,7 +35289,7 @@
     </row>
     <row r="944" spans="10:17">
       <c r="J944" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K944">
         <v>0</v>
@@ -35363,7 +35315,7 @@
     </row>
     <row r="945" spans="10:17">
       <c r="J945" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K945">
         <v>0</v>
@@ -35389,7 +35341,7 @@
     </row>
     <row r="946" spans="10:17">
       <c r="J946" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K946">
         <v>0</v>
@@ -35415,7 +35367,7 @@
     </row>
     <row r="947" spans="10:17">
       <c r="J947" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K947">
         <v>0</v>
@@ -35441,7 +35393,7 @@
     </row>
     <row r="948" spans="10:17">
       <c r="J948" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K948">
         <v>0</v>
@@ -35467,7 +35419,7 @@
     </row>
     <row r="949" spans="10:17">
       <c r="J949" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K949">
         <v>0</v>
@@ -35493,7 +35445,7 @@
     </row>
     <row r="950" spans="10:17">
       <c r="J950" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K950">
         <v>0</v>
